--- a/src/main/resources/templet/download/order/order2.xlsx
+++ b/src/main/resources/templet/download/order/order2.xlsx
@@ -27,9 +27,6 @@
     <t>执行状态</t>
   </si>
   <si>
-    <t>紧急状态</t>
-  </si>
-  <si>
     <t>工作订单号</t>
   </si>
   <si>
@@ -119,6 +116,10 @@
   </si>
   <si>
     <t>物流单号</t>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,97 +596,97 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templet/download/order/order2.xlsx
+++ b/src/main/resources/templet/download/order/order2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>类别</t>
   </si>
@@ -48,85 +48,110 @@
     <t>单位</t>
   </si>
   <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>技术条件</t>
+  </si>
+  <si>
+    <t>质量等级</t>
+  </si>
+  <si>
+    <t>订单日期</t>
+  </si>
+  <si>
+    <t>交货日期</t>
+  </si>
+  <si>
+    <t>未税单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>税率</t>
+  </si>
+  <si>
+    <t>税额</t>
+  </si>
+  <si>
+    <t>含税金额</t>
+  </si>
+  <si>
+    <t>分配时间</t>
+  </si>
+  <si>
+    <t>分配流向</t>
+  </si>
+  <si>
+    <t>制造商</t>
+  </si>
+  <si>
+    <t>接收时间</t>
+  </si>
+  <si>
+    <t>投产时间</t>
+  </si>
+  <si>
+    <t>入库时间</t>
+  </si>
+  <si>
+    <t>检测时间</t>
+  </si>
+  <si>
+    <t>出库时间</t>
+  </si>
+  <si>
+    <t>出库状态</t>
+  </si>
+  <si>
+    <t>发货地址</t>
+  </si>
+  <si>
+    <t>物流名称</t>
+  </si>
+  <si>
+    <t>物流单号</t>
+  </si>
+  <si>
+    <t>客户编码</t>
+  </si>
+  <si>
+    <t>图纸</t>
+  </si>
+  <si>
     <t>型号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>技术条件</t>
-  </si>
-  <si>
-    <t>质量等级</t>
-  </si>
-  <si>
-    <t>订单日期</t>
-  </si>
-  <si>
-    <t>交货日期</t>
-  </si>
-  <si>
-    <t>未税单价</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>税率</t>
-  </si>
-  <si>
-    <t>税额</t>
-  </si>
-  <si>
-    <t>含税金额</t>
-  </si>
-  <si>
-    <t>分配时间</t>
-  </si>
-  <si>
-    <t>分配流向</t>
-  </si>
-  <si>
-    <t>制造商</t>
-  </si>
-  <si>
-    <t>接收时间</t>
-  </si>
-  <si>
-    <t>投产时间</t>
-  </si>
-  <si>
-    <t>入库时间</t>
-  </si>
-  <si>
-    <t>检测时间</t>
-  </si>
-  <si>
-    <t>出库时间</t>
-  </si>
-  <si>
-    <t>出库状态</t>
-  </si>
-  <si>
-    <t>发货地址</t>
-  </si>
-  <si>
-    <t>物流名称</t>
-  </si>
-  <si>
-    <t>物流单号</t>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单价</t>
+  </si>
+  <si>
+    <t>采购总价</t>
+  </si>
+  <si>
+    <t>挂账时间</t>
+  </si>
+  <si>
+    <t>挂账状态</t>
+  </si>
+  <si>
+    <t>挂账数量</t>
+  </si>
+  <si>
+    <t>挂账金额</t>
+  </si>
+  <si>
+    <t>未挂账数量</t>
+  </si>
+  <si>
+    <t>是否成品</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,75 +170,26 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -225,27 +201,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,43 +510,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="22.5" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="14.75" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="12.75" customWidth="1"/>
-    <col min="23" max="23" width="18.875" customWidth="1"/>
-    <col min="24" max="24" width="12.25" customWidth="1"/>
-    <col min="25" max="25" width="32.25" customWidth="1"/>
-    <col min="26" max="26" width="21.125" customWidth="1"/>
-    <col min="27" max="27" width="19.875" customWidth="1"/>
-    <col min="28" max="28" width="18.875" customWidth="1"/>
-    <col min="29" max="29" width="17" customWidth="1"/>
-    <col min="30" max="30" width="20.5" customWidth="1"/>
-    <col min="32" max="32" width="34.5" customWidth="1"/>
-    <col min="33" max="33" width="13.875" customWidth="1"/>
-    <col min="34" max="34" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="1"/>
+    <col min="32" max="32" width="34.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18.875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="16.625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="15.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="12.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,21 +571,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -620,78 +595,106 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
-        <v>32</v>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -703,7 +706,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -716,7 +719,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>